--- a/Documentatie/Klaar/Test_cases.xlsx
+++ b/Documentatie/Klaar/Test_cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivier\Documents\Fontys\Semester 2\Individueel traject\Ontwikkelopdracht\RaadHetWoordAsp\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivier\Documents\Fontys\Semester 2\Individueel traject\Ontwikkelopdracht\RaadHetWoordAsp\Documentatie\Klaar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7884B5F4-59A6-4FE4-9F20-4680D6A4A3D5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6950ED-8300-42A9-A792-87AF281E2AC2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{FFF3AB20-DF7B-4820-8C3A-4A4ADF34EE9B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="79">
   <si>
     <t>Testcases</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Integration</t>
-  </si>
-  <si>
-    <t>UI</t>
   </si>
   <si>
     <t>Test gemaakt</t>
@@ -343,13 +340,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -671,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF4E6F1-32CA-4564-BE24-7F11FBD6944A}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,561 +711,559 @@
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="K9" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
-      <c r="K12" s="7"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
-      <c r="K14" s="7"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
       <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>38</v>
       </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
       <c r="F19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>53</v>
       </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
         <v>55</v>
       </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
         <v>61</v>
       </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
       <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="9"/>
-      <c r="K30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
       <c r="C31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="F31" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="8"/>
-      <c r="K32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" t="s">
-        <v>71</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
         <v>73</v>
       </c>
-      <c r="D35" t="s">
-        <v>74</v>
-      </c>
       <c r="F35" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
         <v>76</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>77</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>78</v>
       </c>
-      <c r="D37" t="s">
-        <v>79</v>
-      </c>
       <c r="F37" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="K29:K30"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
